--- a/QA/testcases/LLS/Provider/007_L_Prov_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Provider/007_L_Prov_Patient_App_Create_PCase_Positive.xlsx
@@ -555,9 +555,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -590,11 +590,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,43 +636,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -652,32 +643,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,15 +665,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,11 +697,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -767,49 +767,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,19 +923,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,109 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,50 +1022,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1096,6 +1052,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1122,15 +1122,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,134 +1140,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1285,7 +1285,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1687,7 +1686,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1939,7 +1938,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2279,20 +2278,20 @@
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H30" s="11"/>

--- a/QA/testcases/LLS/Provider/007_L_Prov_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Provider/007_L_Prov_Patient_App_Create_PCase_Positive.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>Step No</t>
   </si>
@@ -230,15 +230,6 @@
   </si>
   <si>
     <t>Verified</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
   </si>
   <si>
     <t>Actions</t>
@@ -1683,10 +1674,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A34" sqref="$A34:$XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2356,47 +2347,9 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="12">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="10">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>4</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B9 B4:B6 B34:B35 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B9 B4:B6 C2:C3">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -2439,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2447,20 +2400,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2471,20 +2424,20 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2492,47 +2445,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -2542,12 +2495,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -2557,17 +2510,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -2577,230 +2530,230 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -2810,159 +2763,159 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -2972,22 +2925,22 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
